--- a/heroes/playerPrices.xlsx
+++ b/heroes/playerPrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sem/Documents/FutbinPriceUpdater/heroes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB44A6A-1FE9-3444-9F72-32EA4D7A3561}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA58A04-1E4E-6041-BA7C-C9BB4B0B11B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,37 +314,6 @@
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -409,6 +378,37 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -423,22 +423,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB2BFF98-CD14-2C41-AD73-6E89E77EBCD2}" name="Tabell1" displayName="Tabell1" ref="A1:M20" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB2BFF98-CD14-2C41-AD73-6E89E77EBCD2}" name="Tabell1" displayName="Tabell1" ref="A1:M20" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:M20" xr:uid="{6B002EBF-4F4D-7942-841C-38455041B116}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M20">
+    <sortCondition ref="C1:C20"/>
+  </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{5FC4713B-1BE2-9A47-A5F5-EEB774D78949}" name="Kolonne1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{43049BFC-B4C6-7545-B992-63F306B9B0CB}" name="ID" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{DB406FB3-F780-214F-8EC6-51EDEAFA018F}" name="Name" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{F10DFE05-9889-4E4B-A7E8-845838E5007C}" name="Buyprice" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{459E99E1-4C82-9448-9AAB-EF5D83265438}" name="Lowest" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{22C7C3E1-6391-F940-B56B-5AF5D399600C}" name="Average" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{5279F920-1B1E-954C-AD3E-0ED945EF05F1}" name="Median" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{6838C0E2-8680-A847-95CA-2C7364D82BB0}" name="Highest" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{A59C3FA8-CA85-434D-B86C-3713BD456A2A}" name="95% of sales" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{8CB3FABD-41DD-DA4C-9DB3-664E1C6FC5CF}" name="Most frequent" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{2F37D934-D72C-8546-B29F-87B4A6ADCB77}" name="Frequency" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{CC0B383A-FDEE-C847-BF68-8207405899A4}" name="Occurency rate (+2.5%)" dataDxfId="3" dataCellStyle="Prosent"/>
-    <tableColumn id="13" xr3:uid="{57508278-F10D-BD4C-BC5C-F33CC8F4ACCC}" name="First sale data" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5FC4713B-1BE2-9A47-A5F5-EEB774D78949}" name="Kolonne1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{43049BFC-B4C6-7545-B992-63F306B9B0CB}" name="ID" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{DB406FB3-F780-214F-8EC6-51EDEAFA018F}" name="Name" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F10DFE05-9889-4E4B-A7E8-845838E5007C}" name="Buyprice" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{459E99E1-4C82-9448-9AAB-EF5D83265438}" name="Lowest" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{22C7C3E1-6391-F940-B56B-5AF5D399600C}" name="Average" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{5279F920-1B1E-954C-AD3E-0ED945EF05F1}" name="Median" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{6838C0E2-8680-A847-95CA-2C7364D82BB0}" name="Highest" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{A59C3FA8-CA85-434D-B86C-3713BD456A2A}" name="95% of sales" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{8CB3FABD-41DD-DA4C-9DB3-664E1C6FC5CF}" name="Most frequent" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{2F37D934-D72C-8546-B29F-87B4A6ADCB77}" name="Frequency" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{CC0B383A-FDEE-C847-BF68-8207405899A4}" name="Occurency rate (+2.5%)" dataDxfId="1" dataCellStyle="Prosent"/>
+    <tableColumn id="13" xr3:uid="{57508278-F10D-BD4C-BC5C-F33CC8F4ACCC}" name="First sale data" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -731,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -795,617 +798,617 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>51412</v>
+        <v>167425</v>
       </c>
       <c r="B2" s="2">
-        <v>51412</v>
+        <v>167425</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2">
-        <v>47</v>
+        <v>699</v>
       </c>
       <c r="E2" s="2">
-        <v>45000</v>
+        <v>704000</v>
       </c>
       <c r="F2" s="2">
-        <v>52987</v>
+        <v>777566</v>
       </c>
       <c r="G2" s="2">
-        <v>53000</v>
+        <v>780000</v>
       </c>
       <c r="H2" s="2">
-        <v>57500</v>
+        <v>899000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2">
-        <v>53000</v>
+        <v>770000</v>
       </c>
       <c r="K2" s="2">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="L2" s="3">
-        <v>0.252</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>524</v>
+        <v>168886</v>
       </c>
       <c r="B3" s="2">
-        <v>524</v>
+        <v>168886</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
-        <v>47250</v>
+        <v>16500</v>
       </c>
       <c r="F3" s="2">
-        <v>53900</v>
+        <v>23582.5</v>
       </c>
       <c r="G3" s="2">
-        <v>54000</v>
+        <v>23250</v>
       </c>
       <c r="H3" s="2">
-        <v>70000</v>
+        <v>27250</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2">
-        <v>54000</v>
+        <v>23000</v>
       </c>
       <c r="K3" s="2">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="L3" s="3">
-        <v>0.25800000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>155897</v>
+        <v>51412</v>
       </c>
       <c r="B4" s="2">
-        <v>155897</v>
+        <v>51412</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="F4" s="2">
-        <v>25144.5</v>
+        <v>52987</v>
       </c>
       <c r="G4" s="2">
-        <v>25000</v>
+        <v>53000</v>
       </c>
       <c r="H4" s="2">
-        <v>27750</v>
+        <v>57500</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J4" s="2">
-        <v>25000</v>
+        <v>53000</v>
       </c>
       <c r="K4" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L4" s="3">
-        <v>0.30199999999999999</v>
+        <v>0.252</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1845</v>
+        <v>191694</v>
       </c>
       <c r="B5" s="2">
-        <v>1845</v>
+        <v>191694</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
-        <v>117000</v>
+        <v>14250</v>
       </c>
       <c r="F5" s="2">
-        <v>131618</v>
+        <v>23719.5</v>
       </c>
       <c r="G5" s="2">
-        <v>131000</v>
+        <v>23500</v>
       </c>
       <c r="H5" s="2">
-        <v>166000</v>
+        <v>32000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2">
-        <v>130000</v>
+        <v>23000</v>
       </c>
       <c r="K5" s="2">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="L5" s="3">
-        <v>0.29199999999999998</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2">
         <v>330</v>
       </c>
-      <c r="B6" s="2">
-        <v>330</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2">
-        <v>371</v>
-      </c>
       <c r="E6" s="2">
-        <v>395000</v>
+        <v>335000</v>
       </c>
       <c r="F6" s="2">
-        <v>412590</v>
+        <v>367274</v>
       </c>
       <c r="G6" s="2">
-        <v>412000</v>
+        <v>369000</v>
       </c>
       <c r="H6" s="2">
-        <v>435000</v>
+        <v>410000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2">
-        <v>410000</v>
+        <v>370000</v>
       </c>
       <c r="K6" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L6" s="3">
-        <v>7.1999999999999995E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44897</v>
+        <v>16619</v>
       </c>
       <c r="B7" s="2">
-        <v>44897</v>
+        <v>16619</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2">
-        <v>58</v>
+        <v>390</v>
       </c>
       <c r="E7" s="2">
-        <v>56000</v>
+        <v>375000</v>
       </c>
       <c r="F7" s="2">
-        <v>65403</v>
+        <v>442552</v>
       </c>
       <c r="G7" s="2">
-        <v>65500</v>
+        <v>448000</v>
       </c>
       <c r="H7" s="2">
-        <v>75500</v>
+        <v>580000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2">
-        <v>65000</v>
+        <v>460000</v>
       </c>
       <c r="K7" s="2">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="L7" s="3">
-        <v>0.32800000000000001</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>8385</v>
+        <v>155897</v>
       </c>
       <c r="B8" s="2">
-        <v>8385</v>
+        <v>155897</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2">
-        <v>84000</v>
+        <v>20000</v>
       </c>
       <c r="F8" s="2">
-        <v>95602</v>
+        <v>25144.5</v>
       </c>
       <c r="G8" s="2">
-        <v>95000</v>
+        <v>25000</v>
       </c>
       <c r="H8" s="2">
-        <v>110000</v>
+        <v>27750</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J8" s="2">
-        <v>95000</v>
+        <v>25000</v>
       </c>
       <c r="K8" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L8" s="3">
-        <v>0.316</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>168886</v>
+        <v>120274</v>
       </c>
       <c r="B9" s="2">
-        <v>168886</v>
+        <v>120274</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2">
-        <v>20</v>
+        <v>784</v>
       </c>
       <c r="E9" s="2">
-        <v>16500</v>
+        <v>809000</v>
       </c>
       <c r="F9" s="2">
-        <v>23582.5</v>
+        <v>871432</v>
       </c>
       <c r="G9" s="2">
-        <v>23250</v>
+        <v>870000</v>
       </c>
       <c r="H9" s="2">
-        <v>27250</v>
+        <v>900000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2">
-        <v>23000</v>
+        <v>870000</v>
       </c>
       <c r="K9" s="2">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L9" s="3">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>6975</v>
+        <v>44897</v>
       </c>
       <c r="B10" s="2">
-        <v>6975</v>
+        <v>44897</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2">
-        <v>84000</v>
+        <v>56000</v>
       </c>
       <c r="F10" s="2">
-        <v>99958</v>
+        <v>65403</v>
       </c>
       <c r="G10" s="2">
-        <v>100000</v>
+        <v>65500</v>
       </c>
       <c r="H10" s="2">
-        <v>111000</v>
+        <v>75500</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2">
-        <v>100000</v>
+        <v>65000</v>
       </c>
       <c r="K10" s="2">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="L10" s="3">
-        <v>0.26</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>16619</v>
+        <v>191972</v>
       </c>
       <c r="B11" s="2">
-        <v>16619</v>
+        <v>191972</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2">
-        <v>390</v>
+        <v>1496</v>
       </c>
       <c r="E11" s="2">
-        <v>375000</v>
+        <v>1569000</v>
       </c>
       <c r="F11" s="2">
-        <v>442552</v>
+        <v>1662904</v>
       </c>
       <c r="G11" s="2">
-        <v>448000</v>
+        <v>1665000</v>
       </c>
       <c r="H11" s="2">
-        <v>580000</v>
+        <v>1769000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="J11" s="2">
-        <v>460000</v>
+        <v>1660000</v>
       </c>
       <c r="K11" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L11" s="3">
-        <v>0.44800000000000001</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>191694</v>
+        <v>150418</v>
       </c>
       <c r="B12" s="2">
-        <v>191694</v>
+        <v>150418</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2">
-        <v>14250</v>
+        <v>77000</v>
       </c>
       <c r="F12" s="2">
-        <v>23719.5</v>
+        <v>104248</v>
       </c>
       <c r="G12" s="2">
-        <v>23500</v>
+        <v>108000</v>
       </c>
       <c r="H12" s="2">
-        <v>32000</v>
+        <v>129000</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J12" s="2">
-        <v>23000</v>
+        <v>110000</v>
       </c>
       <c r="K12" s="2">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L12" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>27</v>
+        <v>330</v>
       </c>
       <c r="B13" s="2">
-        <v>27</v>
+        <v>330</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="E13" s="2">
-        <v>335000</v>
+        <v>395000</v>
       </c>
       <c r="F13" s="2">
-        <v>367274</v>
+        <v>412590</v>
       </c>
       <c r="G13" s="2">
-        <v>369000</v>
+        <v>412000</v>
       </c>
       <c r="H13" s="2">
+        <v>435000</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2">
         <v>410000</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="2">
-        <v>370000</v>
-      </c>
       <c r="K13" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L13" s="3">
-        <v>9.6000000000000002E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>120274</v>
+        <v>261593</v>
       </c>
       <c r="B14" s="2">
-        <v>120274</v>
+        <v>261593</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2">
-        <v>784</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2">
-        <v>809000</v>
+        <v>66000</v>
       </c>
       <c r="F14" s="2">
-        <v>871432</v>
+        <v>89648</v>
       </c>
       <c r="G14" s="2">
-        <v>870000</v>
+        <v>89500</v>
       </c>
       <c r="H14" s="2">
-        <v>900000</v>
+        <v>107000</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="J14" s="2">
-        <v>870000</v>
+        <v>85000</v>
       </c>
       <c r="K14" s="2">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="L14" s="3">
-        <v>0.03</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>262271</v>
+        <v>6975</v>
       </c>
       <c r="B15" s="2">
-        <v>262271</v>
+        <v>6975</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E15" s="2">
-        <v>80000</v>
+        <v>84000</v>
       </c>
       <c r="F15" s="2">
-        <v>88629</v>
+        <v>99958</v>
       </c>
       <c r="G15" s="2">
-        <v>89000</v>
+        <v>100000</v>
       </c>
       <c r="H15" s="2">
-        <v>96000</v>
+        <v>111000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="J15" s="2">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="K15" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L15" s="3">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>150418</v>
+        <v>262271</v>
       </c>
       <c r="B16" s="2">
-        <v>150418</v>
+        <v>262271</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2">
-        <v>77000</v>
+        <v>80000</v>
       </c>
       <c r="F16" s="2">
-        <v>104248</v>
+        <v>88629</v>
       </c>
       <c r="G16" s="2">
-        <v>108000</v>
+        <v>89000</v>
       </c>
       <c r="H16" s="2">
-        <v>129000</v>
+        <v>96000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J16" s="2">
-        <v>110000</v>
+        <v>90000</v>
       </c>
       <c r="K16" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L16" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.24</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1451,125 +1454,125 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>167425</v>
+        <v>8385</v>
       </c>
       <c r="B18" s="2">
-        <v>167425</v>
+        <v>8385</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
-        <v>699</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2">
-        <v>704000</v>
+        <v>84000</v>
       </c>
       <c r="F18" s="2">
-        <v>777566</v>
+        <v>95602</v>
       </c>
       <c r="G18" s="2">
-        <v>780000</v>
+        <v>95000</v>
       </c>
       <c r="H18" s="2">
-        <v>899000</v>
+        <v>110000</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="J18" s="2">
-        <v>770000</v>
+        <v>95000</v>
       </c>
       <c r="K18" s="2">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="L18" s="3">
-        <v>0.25800000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>191972</v>
+        <v>524</v>
       </c>
       <c r="B19" s="2">
-        <v>191972</v>
+        <v>524</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2">
-        <v>1496</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2">
-        <v>1569000</v>
+        <v>47250</v>
       </c>
       <c r="F19" s="2">
-        <v>1662904</v>
+        <v>53900</v>
       </c>
       <c r="G19" s="2">
-        <v>1665000</v>
+        <v>54000</v>
       </c>
       <c r="H19" s="2">
-        <v>1769000</v>
+        <v>70000</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J19" s="2">
-        <v>1660000</v>
+        <v>54000</v>
       </c>
       <c r="K19" s="2">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="L19" s="3">
-        <v>0.11799999999999999</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>261593</v>
+        <v>1845</v>
       </c>
       <c r="B20" s="2">
-        <v>261593</v>
+        <v>1845</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="E20" s="2">
-        <v>66000</v>
+        <v>117000</v>
       </c>
       <c r="F20" s="2">
-        <v>89648</v>
+        <v>131618</v>
       </c>
       <c r="G20" s="2">
-        <v>89500</v>
+        <v>131000</v>
       </c>
       <c r="H20" s="2">
-        <v>107000</v>
+        <v>166000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J20" s="2">
-        <v>85000</v>
+        <v>130000</v>
       </c>
       <c r="K20" s="2">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="L20" s="3">
-        <v>0.41799999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/heroes/playerPrices.xlsx
+++ b/heroes/playerPrices.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sem/Documents/FutbinPriceUpdater/heroes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA58A04-1E4E-6041-BA7C-C9BB4B0B11B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4567DB75-0004-2D4C-9D0C-B5F37E3CBE4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-11-03" sheetId="2" r:id="rId1"/>
+    <sheet name="2021-11-03" sheetId="1" r:id="rId1"/>
+    <sheet name="2021-11-03(1)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="112">
+  <si>
+    <t>Kolonne1</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -58,6 +62,24 @@
     <t>First sale data</t>
   </si>
   <si>
+    <t>Abedi Pelé 89</t>
+  </si>
+  <si>
+    <t>(710000, 830000)</t>
+  </si>
+  <si>
+    <t>Oct 31 21, 22:18 pm</t>
+  </si>
+  <si>
+    <t>Al-Jaber 86</t>
+  </si>
+  <si>
+    <t>(20750, 26500)</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 09:36 am</t>
+  </si>
+  <si>
     <t>Cahill 85</t>
   </si>
   <si>
@@ -67,6 +89,132 @@
     <t>Nov 02 21, 11:36 am</t>
   </si>
   <si>
+    <t>Campos 87</t>
+  </si>
+  <si>
+    <t>(20750, 27000)</t>
+  </si>
+  <si>
+    <t>Nov 01 21, 17:28 pm</t>
+  </si>
+  <si>
+    <t>Cole 87</t>
+  </si>
+  <si>
+    <t>(347000, 389000)</t>
+  </si>
+  <si>
+    <t>Nov 01 21, 21:35 pm</t>
+  </si>
+  <si>
+    <t>Córdoba 87</t>
+  </si>
+  <si>
+    <t>(390000, 480000)</t>
+  </si>
+  <si>
+    <t>Oct 31 21, 19:00 pm</t>
+  </si>
+  <si>
+    <t>Dempsey 85</t>
+  </si>
+  <si>
+    <t>(22500, 27250)</t>
+  </si>
+  <si>
+    <t>Nov 01 21, 19:16 pm</t>
+  </si>
+  <si>
+    <t>Di Natale 88</t>
+  </si>
+  <si>
+    <t>(850000, 894000)</t>
+  </si>
+  <si>
+    <t>Nov 01 21, 22:03 pm</t>
+  </si>
+  <si>
+    <t>Dudek 86</t>
+  </si>
+  <si>
+    <t>(58000, 71500)</t>
+  </si>
+  <si>
+    <t>Nov 01 21, 19:19 pm</t>
+  </si>
+  <si>
+    <t>Ginola 89</t>
+  </si>
+  <si>
+    <t>(1592000, 1726000)</t>
+  </si>
+  <si>
+    <t>Oct 30 21, 07:40 am</t>
+  </si>
+  <si>
+    <t>Gomez 88</t>
+  </si>
+  <si>
+    <t>(85000, 118000)</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 11:26 am</t>
+  </si>
+  <si>
+    <t>Keane 86</t>
+  </si>
+  <si>
+    <t>(400000, 426000)</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 10:13 am</t>
+  </si>
+  <si>
+    <t>Kohler 89</t>
+  </si>
+  <si>
+    <t>(79000, 101000)</t>
+  </si>
+  <si>
+    <t>Nov 01 21, 23:00 pm</t>
+  </si>
+  <si>
+    <t>Ljungberg 86</t>
+  </si>
+  <si>
+    <t>(92000, 107000)</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 10:55 am</t>
+  </si>
+  <si>
+    <t>Milito 88</t>
+  </si>
+  <si>
+    <t>(81500, 95000)</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 14:34 pm</t>
+  </si>
+  <si>
+    <t>Morientes 89</t>
+  </si>
+  <si>
+    <t>(170000, 192000)</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 15:06 pm</t>
+  </si>
+  <si>
+    <t>Mostovoi 86</t>
+  </si>
+  <si>
+    <t>(89000, 100000)</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 04:03 am</t>
+  </si>
+  <si>
     <t>Ricken 85</t>
   </si>
   <si>
@@ -76,15 +224,6 @@
     <t>Nov 02 21, 10:11 am</t>
   </si>
   <si>
-    <t>Dempsey 85</t>
-  </si>
-  <si>
-    <t>(22500, 27250)</t>
-  </si>
-  <si>
-    <t>Nov 01 21, 19:16 pm</t>
-  </si>
-  <si>
     <t>Solskjær 86</t>
   </si>
   <si>
@@ -94,149 +233,137 @@
     <t>Nov 02 21, 09:19 am</t>
   </si>
   <si>
-    <t>Keane 86</t>
-  </si>
-  <si>
-    <t>(400000, 426000)</t>
-  </si>
-  <si>
-    <t>Nov 02 21, 10:13 am</t>
-  </si>
-  <si>
-    <t>Dudek 86</t>
-  </si>
-  <si>
-    <t>(58000, 71500)</t>
-  </si>
-  <si>
-    <t>Nov 01 21, 19:19 pm</t>
-  </si>
-  <si>
-    <t>Mostovoi 86</t>
-  </si>
-  <si>
-    <t>(89000, 100000)</t>
-  </si>
-  <si>
-    <t>Nov 02 21, 04:03 am</t>
-  </si>
-  <si>
-    <t>Al-Jaber 86</t>
-  </si>
-  <si>
-    <t>(20750, 26500)</t>
-  </si>
-  <si>
-    <t>Nov 02 21, 09:36 am</t>
-  </si>
-  <si>
-    <t>Ljungberg 86</t>
-  </si>
-  <si>
-    <t>(92000, 107000)</t>
-  </si>
-  <si>
-    <t>Nov 02 21, 10:55 am</t>
-  </si>
-  <si>
-    <t>Córdoba 87</t>
-  </si>
-  <si>
-    <t>(390000, 480000)</t>
-  </si>
-  <si>
-    <t>Oct 31 21, 19:00 pm</t>
-  </si>
-  <si>
-    <t>Campos 87</t>
-  </si>
-  <si>
-    <t>(20750, 27000)</t>
-  </si>
-  <si>
-    <t>Nov 01 21, 17:28 pm</t>
-  </si>
-  <si>
-    <t>Cole 87</t>
-  </si>
-  <si>
-    <t>(347000, 389000)</t>
-  </si>
-  <si>
-    <t>Nov 01 21, 21:35 pm</t>
-  </si>
-  <si>
-    <t>Di Natale 88</t>
-  </si>
-  <si>
-    <t>(850000, 894000)</t>
-  </si>
-  <si>
-    <t>Nov 01 21, 22:03 pm</t>
-  </si>
-  <si>
-    <t>Milito 88</t>
-  </si>
-  <si>
-    <t>(81500, 95000)</t>
-  </si>
-  <si>
-    <t>Nov 02 21, 14:34 pm</t>
-  </si>
-  <si>
-    <t>Gomez 88</t>
-  </si>
-  <si>
-    <t>(85000, 118000)</t>
-  </si>
-  <si>
-    <t>Nov 02 21, 11:26 am</t>
-  </si>
-  <si>
-    <t>Morientes 89</t>
-  </si>
-  <si>
-    <t>(170000, 192000)</t>
-  </si>
-  <si>
-    <t>Nov 02 21, 15:06 pm</t>
-  </si>
-  <si>
-    <t>Abedi Pelé 89</t>
-  </si>
-  <si>
-    <t>(710000, 830000)</t>
-  </si>
-  <si>
-    <t>Oct 31 21, 22:18 pm</t>
-  </si>
-  <si>
-    <t>Ginola 89</t>
-  </si>
-  <si>
-    <t>(1592000, 1726000)</t>
-  </si>
-  <si>
-    <t>Oct 30 21, 07:40 am</t>
-  </si>
-  <si>
-    <t>Kohler 89</t>
-  </si>
-  <si>
-    <t>(79000, 101000)</t>
-  </si>
-  <si>
-    <t>Nov 01 21, 23:00 pm</t>
-  </si>
-  <si>
-    <t>Kolonne1</t>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>1.3%</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 13:22 pm</t>
+  </si>
+  <si>
+    <t>5.1%</t>
+  </si>
+  <si>
+    <t>(48750, 60000)</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 12:11 pm</t>
+  </si>
+  <si>
+    <t>4.3%</t>
+  </si>
+  <si>
+    <t>Nov 01 21, 19:35 pm</t>
+  </si>
+  <si>
+    <t>-0.1%</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 11:03 am</t>
+  </si>
+  <si>
+    <t>0.7%</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 11:14 am</t>
+  </si>
+  <si>
+    <t>-3.3%</t>
+  </si>
+  <si>
+    <t>Nov 01 21, 20:02 pm</t>
+  </si>
+  <si>
+    <t>-0.6%</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 05:59 am</t>
+  </si>
+  <si>
+    <t>-5.0%</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 11:34 am</t>
+  </si>
+  <si>
+    <t>-4.7%</t>
+  </si>
+  <si>
+    <t>(91500, 107000)</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 11:52 am</t>
+  </si>
+  <si>
+    <t>8.6%</t>
+  </si>
+  <si>
+    <t>Oct 31 21, 19:44 pm</t>
+  </si>
+  <si>
+    <t>-0.7%</t>
+  </si>
+  <si>
+    <t>(20750, 26750)</t>
+  </si>
+  <si>
+    <t>Nov 01 21, 18:43 pm</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t>1.2%</t>
+  </si>
+  <si>
+    <t>Nov 01 21, 22:09 pm</t>
+  </si>
+  <si>
+    <t>-2.9%</t>
+  </si>
+  <si>
+    <t>(81000, 94500)</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 15:53 pm</t>
+  </si>
+  <si>
+    <t>10.4%</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 13:26 pm</t>
+  </si>
+  <si>
+    <t>-1.8%</t>
+  </si>
+  <si>
+    <t>Nov 02 21, 16:06 pm</t>
+  </si>
+  <si>
+    <t>5.4%</t>
+  </si>
+  <si>
+    <t>Nov 01 21, 00:00 am</t>
+  </si>
+  <si>
+    <t>3.4%</t>
+  </si>
+  <si>
+    <t>Oct 30 21, 08:53 am</t>
+  </si>
+  <si>
+    <t>11.9%</t>
+  </si>
+  <si>
+    <t>Nov 01 21, 23:54 pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +383,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,7 +397,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -288,12 +420,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -304,12 +451,46 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Prosent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -379,26 +560,88 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="top"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" vertical="top"/>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -423,25 +666,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB2BFF98-CD14-2C41-AD73-6E89E77EBCD2}" name="Tabell1" displayName="Tabell1" ref="A1:M20" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M20" xr:uid="{6B002EBF-4F4D-7942-841C-38455041B116}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabell1" displayName="Tabell1" ref="A1:M20" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:M20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M20">
     <sortCondition ref="C1:C20"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{5FC4713B-1BE2-9A47-A5F5-EEB774D78949}" name="Kolonne1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{43049BFC-B4C6-7545-B992-63F306B9B0CB}" name="ID" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{DB406FB3-F780-214F-8EC6-51EDEAFA018F}" name="Name" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{F10DFE05-9889-4E4B-A7E8-845838E5007C}" name="Buyprice" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{459E99E1-4C82-9448-9AAB-EF5D83265438}" name="Lowest" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{22C7C3E1-6391-F940-B56B-5AF5D399600C}" name="Average" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{5279F920-1B1E-954C-AD3E-0ED945EF05F1}" name="Median" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{6838C0E2-8680-A847-95CA-2C7364D82BB0}" name="Highest" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{A59C3FA8-CA85-434D-B86C-3713BD456A2A}" name="95% of sales" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{8CB3FABD-41DD-DA4C-9DB3-664E1C6FC5CF}" name="Most frequent" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{2F37D934-D72C-8546-B29F-87B4A6ADCB77}" name="Frequency" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{CC0B383A-FDEE-C847-BF68-8207405899A4}" name="Occurency rate (+2.5%)" dataDxfId="1" dataCellStyle="Prosent"/>
-    <tableColumn id="13" xr3:uid="{57508278-F10D-BD4C-BC5C-F33CC8F4ACCC}" name="First sale data" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Kolonne1" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ID" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Buyprice" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lowest" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Average" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Median" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Highest" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="95% of sales" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Most frequent" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Frequency" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Occurency rate (+2.5%)" dataDxfId="16" dataCellStyle="Prosent"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="First sale data" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CAAA7697-172D-2F41-81AD-56329C09E702}" name="Tabell2" displayName="Tabell2" ref="A1:M20" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:M20" xr:uid="{419E1447-5650-AF4F-986F-672A987C51E8}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{CEAE94BA-4B10-E146-864E-CF8D6D480B30}" name="Kolonne1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{AC9568E5-23A2-F840-B073-1670EA3CF8DE}" name="ID" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4DFEB1EF-71DD-3B4A-9A61-F573C48F69EB}" name="Name" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{D57A0359-E04E-1E41-A84A-9EE744803DF6}" name="Buyprice" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{06477F21-3915-424B-99C2-5998D14B8D6F}" name="Lowest" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{1DC4854B-13A2-9742-8823-0F5DE03F9DFE}" name="Average" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{6D9FDEB7-445D-EB42-B565-3D9DB81B2445}" name="Highest" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{84E95AB2-239E-EB43-A5CB-97DEA8A74AC2}" name="Trend" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{E5BB7CA2-D93D-4346-87F6-D196CAEE5AE2}" name="95% of sales" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{70AAB50C-990C-0449-8CE2-C676F39661D2}" name="Most frequent" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{D5A84469-57B0-294C-949B-8EC3819A76B9}" name="Frequency" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{C020A1FD-3D02-0E46-B2C5-AB4540AC23E2}" name="Occurency rate (+2.5%)" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{FCCDCE93-00E8-314E-A559-DD0A3DBDB46E}" name="First sale data" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -731,10 +996,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -757,43 +1022,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -804,7 +1069,7 @@
         <v>167425</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
         <v>699</v>
@@ -822,7 +1087,7 @@
         <v>899000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2">
         <v>770000</v>
@@ -834,7 +1099,7 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -845,7 +1110,7 @@
         <v>168886</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>20</v>
@@ -863,7 +1128,7 @@
         <v>27250</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2">
         <v>23000</v>
@@ -875,7 +1140,7 @@
         <v>0.31</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -886,7 +1151,7 @@
         <v>51412</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>47</v>
@@ -904,7 +1169,7 @@
         <v>57500</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2">
         <v>53000</v>
@@ -916,7 +1181,7 @@
         <v>0.252</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -927,7 +1192,7 @@
         <v>191694</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>20</v>
@@ -945,7 +1210,7 @@
         <v>32000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2">
         <v>23000</v>
@@ -957,7 +1222,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -968,7 +1233,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>330</v>
@@ -986,7 +1251,7 @@
         <v>410000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2">
         <v>370000</v>
@@ -998,7 +1263,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1009,7 +1274,7 @@
         <v>16619</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>390</v>
@@ -1027,7 +1292,7 @@
         <v>580000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2">
         <v>460000</v>
@@ -1039,7 +1304,7 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1050,7 +1315,7 @@
         <v>155897</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>22</v>
@@ -1068,7 +1333,7 @@
         <v>27750</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2">
         <v>25000</v>
@@ -1080,7 +1345,7 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1091,7 +1356,7 @@
         <v>120274</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>784</v>
@@ -1109,7 +1374,7 @@
         <v>900000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J9" s="2">
         <v>870000</v>
@@ -1121,7 +1386,7 @@
         <v>0.03</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1132,7 +1397,7 @@
         <v>44897</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2">
         <v>58</v>
@@ -1150,7 +1415,7 @@
         <v>75500</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J10" s="2">
         <v>65000</v>
@@ -1162,7 +1427,7 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1173,7 +1438,7 @@
         <v>191972</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2">
         <v>1496</v>
@@ -1191,7 +1456,7 @@
         <v>1769000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="J11" s="2">
         <v>1660000</v>
@@ -1203,7 +1468,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1214,7 +1479,7 @@
         <v>150418</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2">
         <v>85</v>
@@ -1232,7 +1497,7 @@
         <v>129000</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J12" s="2">
         <v>110000</v>
@@ -1244,7 +1509,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1255,7 +1520,7 @@
         <v>330</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2">
         <v>371</v>
@@ -1273,7 +1538,7 @@
         <v>435000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="J13" s="2">
         <v>410000</v>
@@ -1285,7 +1550,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1296,7 +1561,7 @@
         <v>261593</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2">
         <v>79</v>
@@ -1314,7 +1579,7 @@
         <v>107000</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="J14" s="2">
         <v>85000</v>
@@ -1326,7 +1591,7 @@
         <v>0.41799999999999998</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1337,7 +1602,7 @@
         <v>6975</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2">
         <v>89</v>
@@ -1355,7 +1620,7 @@
         <v>111000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J15" s="2">
         <v>100000</v>
@@ -1367,7 +1632,7 @@
         <v>0.26</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1378,7 +1643,7 @@
         <v>262271</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2">
         <v>79</v>
@@ -1396,7 +1661,7 @@
         <v>96000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J16" s="2">
         <v>90000</v>
@@ -1408,7 +1673,7 @@
         <v>0.24</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1419,7 +1684,7 @@
         <v>5661</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2">
         <v>163</v>
@@ -1437,7 +1702,7 @@
         <v>199000</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J17" s="2">
         <v>180000</v>
@@ -1449,7 +1714,7 @@
         <v>0.22</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1460,7 +1725,7 @@
         <v>8385</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2">
         <v>86</v>
@@ -1478,7 +1743,7 @@
         <v>110000</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="J18" s="2">
         <v>95000</v>
@@ -1490,7 +1755,7 @@
         <v>0.316</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1501,7 +1766,7 @@
         <v>524</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2">
         <v>48</v>
@@ -1519,7 +1784,7 @@
         <v>70000</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="J19" s="2">
         <v>54000</v>
@@ -1531,7 +1796,7 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1542,7 +1807,7 @@
         <v>1845</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D20" s="2">
         <v>118</v>
@@ -1560,7 +1825,7 @@
         <v>166000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="J20" s="2">
         <v>130000</v>
@@ -1572,7 +1837,7 @@
         <v>0.29199999999999998</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1581,4 +1846,869 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>51412</v>
+      </c>
+      <c r="B2" s="2">
+        <v>51412</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>52787</v>
+      </c>
+      <c r="G2" s="2">
+        <v>57000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2">
+        <v>54000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>61</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.216</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>524</v>
+      </c>
+      <c r="B3" s="2">
+        <v>524</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2">
+        <v>46000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>53868</v>
+      </c>
+      <c r="G3" s="2">
+        <v>70000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="2">
+        <v>54000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>155897</v>
+      </c>
+      <c r="B4" s="2">
+        <v>155897</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>25140</v>
+      </c>
+      <c r="G4" s="2">
+        <v>27750</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2">
+        <v>25000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>62</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1845</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1845</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2">
+        <v>118</v>
+      </c>
+      <c r="E5" s="2">
+        <v>117000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>131640</v>
+      </c>
+      <c r="G5" s="2">
+        <v>166000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="2">
+        <v>130000</v>
+      </c>
+      <c r="K5" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>330</v>
+      </c>
+      <c r="B6" s="2">
+        <v>330</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2">
+        <v>371</v>
+      </c>
+      <c r="E6" s="2">
+        <v>395000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>412496</v>
+      </c>
+      <c r="G6" s="2">
+        <v>435000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="2">
+        <v>410000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>75</v>
+      </c>
+      <c r="L6" s="2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>44897</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44897</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2">
+        <v>56000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>65366</v>
+      </c>
+      <c r="G7" s="2">
+        <v>75500</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2">
+        <v>65000</v>
+      </c>
+      <c r="K7" s="2">
+        <v>60</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>8385</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8385</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2">
+        <v>84000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>95459</v>
+      </c>
+      <c r="G8" s="2">
+        <v>110000</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="2">
+        <v>95000</v>
+      </c>
+      <c r="K8" s="2">
+        <v>63</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>168886</v>
+      </c>
+      <c r="B9" s="2">
+        <v>168886</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2">
+        <v>16500</v>
+      </c>
+      <c r="F9" s="2">
+        <v>23532</v>
+      </c>
+      <c r="G9" s="2">
+        <v>27250</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2">
+        <v>23000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>73</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>6975</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6975</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2">
+        <v>89</v>
+      </c>
+      <c r="E10" s="2">
+        <v>84000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>99528</v>
+      </c>
+      <c r="G10" s="2">
+        <v>109000</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K10" s="2">
+        <v>83</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>16619</v>
+      </c>
+      <c r="B11" s="2">
+        <v>16619</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>390</v>
+      </c>
+      <c r="E11" s="2">
+        <v>375000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>443218</v>
+      </c>
+      <c r="G11" s="2">
+        <v>580000</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2">
+        <v>460000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>35</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>191694</v>
+      </c>
+      <c r="B12" s="2">
+        <v>191694</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2">
+        <v>14250</v>
+      </c>
+      <c r="F12" s="2">
+        <v>23581.5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>32000</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="2">
+        <v>23000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>62</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>330</v>
+      </c>
+      <c r="E13" s="2">
+        <v>335000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>367236</v>
+      </c>
+      <c r="G13" s="2">
+        <v>410000</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="2">
+        <v>370000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>74</v>
+      </c>
+      <c r="L13" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>120274</v>
+      </c>
+      <c r="B14" s="2">
+        <v>120274</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <v>784</v>
+      </c>
+      <c r="E14" s="2">
+        <v>809000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>871746</v>
+      </c>
+      <c r="G14" s="2">
+        <v>900000</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="2">
+        <v>870000</v>
+      </c>
+      <c r="K14" s="2">
+        <v>60</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>262271</v>
+      </c>
+      <c r="B15" s="2">
+        <v>262271</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2">
+        <v>79500</v>
+      </c>
+      <c r="F15" s="2">
+        <v>88219</v>
+      </c>
+      <c r="G15" s="2">
+        <v>96000</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="2">
+        <v>90000</v>
+      </c>
+      <c r="K15" s="2">
+        <v>73</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>150418</v>
+      </c>
+      <c r="B16" s="2">
+        <v>150418</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2">
+        <v>85</v>
+      </c>
+      <c r="E16" s="2">
+        <v>77000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>104820</v>
+      </c>
+      <c r="G16" s="2">
+        <v>129000</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="2">
+        <v>110000</v>
+      </c>
+      <c r="K16" s="2">
+        <v>53</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>5661</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5661</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2">
+        <v>162</v>
+      </c>
+      <c r="E17" s="2">
+        <v>152000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>180922</v>
+      </c>
+      <c r="G17" s="2">
+        <v>199000</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="2">
+        <v>180000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>60</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>167425</v>
+      </c>
+      <c r="B18" s="2">
+        <v>167425</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <v>700</v>
+      </c>
+      <c r="E18" s="2">
+        <v>704000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>777784</v>
+      </c>
+      <c r="G18" s="2">
+        <v>899000</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="2">
+        <v>770000</v>
+      </c>
+      <c r="K18" s="2">
+        <v>27</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>191972</v>
+      </c>
+      <c r="B19" s="2">
+        <v>191972</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1496</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1569000</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1662710</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1769000</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1660000</v>
+      </c>
+      <c r="K19" s="2">
+        <v>25</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>261593</v>
+      </c>
+      <c r="B20" s="2">
+        <v>261593</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="2">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2">
+        <v>66000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>89808</v>
+      </c>
+      <c r="G20" s="2">
+        <v>107000</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="2">
+        <v>95000</v>
+      </c>
+      <c r="K20" s="2">
+        <v>25</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/heroes/playerPrices.xlsx
+++ b/heroes/playerPrices.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sem/Documents/FutbinPriceUpdater/heroes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30146F0-1B8E-6D4E-A35D-C28E2E9A4F76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47964B0-4BD3-DE41-82CB-731F7490254C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initiate" sheetId="1" r:id="rId1"/>
     <sheet name="2021-11-17" sheetId="2" r:id="rId2"/>
+    <sheet name="2021-11-29" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="290">
   <si>
     <t>Buyprice</t>
   </si>
@@ -663,19 +664,252 @@
   </si>
   <si>
     <t>Nov 16 21, 19:12 pm</t>
+  </si>
+  <si>
+    <t>Data from last</t>
+  </si>
+  <si>
+    <t># of sales</t>
+  </si>
+  <si>
+    <t>-0.2%</t>
+  </si>
+  <si>
+    <t>((495, 519), 136)</t>
+  </si>
+  <si>
+    <t>4.7%</t>
+  </si>
+  <si>
+    <t>(507000, 500000, 507000)</t>
+  </si>
+  <si>
+    <t>0 day(s) &amp; 15 hrs</t>
+  </si>
+  <si>
+    <t>((12, 14), 117)</t>
+  </si>
+  <si>
+    <t>64.1%</t>
+  </si>
+  <si>
+    <t>(14500, 14500, 13500)</t>
+  </si>
+  <si>
+    <t>-0.1%</t>
+  </si>
+  <si>
+    <t>((20, 22), 136)</t>
+  </si>
+  <si>
+    <t>43.4%</t>
+  </si>
+  <si>
+    <t>(22000, 21000, 22000)</t>
+  </si>
+  <si>
+    <t>1.1%</t>
+  </si>
+  <si>
+    <t>((18, 20), 206)</t>
+  </si>
+  <si>
+    <t>19.6%</t>
+  </si>
+  <si>
+    <t>(19000, 19000, 19250)</t>
+  </si>
+  <si>
+    <t>1 day(s) &amp; 13 hrs</t>
+  </si>
+  <si>
+    <t>0.8%</t>
+  </si>
+  <si>
+    <t>((139, 145), 94)</t>
+  </si>
+  <si>
+    <t>53.9%</t>
+  </si>
+  <si>
+    <t>(146500, 140000, 149000)</t>
+  </si>
+  <si>
+    <t>((367, 385), 103)</t>
+  </si>
+  <si>
+    <t>11.0%</t>
+  </si>
+  <si>
+    <t>(377500, 379000, 380000)</t>
+  </si>
+  <si>
+    <t>4.8%</t>
+  </si>
+  <si>
+    <t>((14, 16), 91)</t>
+  </si>
+  <si>
+    <t>19.1%</t>
+  </si>
+  <si>
+    <t>(14500, 15000, 15750)</t>
+  </si>
+  <si>
+    <t>-1.5%</t>
+  </si>
+  <si>
+    <t>((500, 524), 208)</t>
+  </si>
+  <si>
+    <t>10.3%</t>
+  </si>
+  <si>
+    <t>(519000, 515000, 507500)</t>
+  </si>
+  <si>
+    <t>-4.0%</t>
+  </si>
+  <si>
+    <t>((28, 30), 100)</t>
+  </si>
+  <si>
+    <t>37.9%</t>
+  </si>
+  <si>
+    <t>(29625, 29750, 29500)</t>
+  </si>
+  <si>
+    <t>-1.1%</t>
+  </si>
+  <si>
+    <t>((1218, 1280), 97)</t>
+  </si>
+  <si>
+    <t>4.0%</t>
+  </si>
+  <si>
+    <t>(1259000, 1257000, 1240000)</t>
+  </si>
+  <si>
+    <t>((34, 36), 114)</t>
+  </si>
+  <si>
+    <t>33.5%</t>
+  </si>
+  <si>
+    <t>(35250, 34500, 36000)</t>
+  </si>
+  <si>
+    <t>-4.4%</t>
+  </si>
+  <si>
+    <t>((182, 190), 65)</t>
+  </si>
+  <si>
+    <t>19.7%</t>
+  </si>
+  <si>
+    <t>(188000, 184000, 180000)</t>
+  </si>
+  <si>
+    <t>0 day(s) &amp; 9 hrs</t>
+  </si>
+  <si>
+    <t>-1.3%</t>
+  </si>
+  <si>
+    <t>((40, 42), 112)</t>
+  </si>
+  <si>
+    <t>24.4%</t>
+  </si>
+  <si>
+    <t>(41250, 40000, 40750)</t>
+  </si>
+  <si>
+    <t>-4.1%</t>
+  </si>
+  <si>
+    <t>((33, 35), 104)</t>
+  </si>
+  <si>
+    <t>14.6%</t>
+  </si>
+  <si>
+    <t>(33875, 33500, 31500)</t>
+  </si>
+  <si>
+    <t>((31, 33), 112)</t>
+  </si>
+  <si>
+    <t>36.8%</t>
+  </si>
+  <si>
+    <t>(33000, 31500, 32625)</t>
+  </si>
+  <si>
+    <t>-3.3%</t>
+  </si>
+  <si>
+    <t>((55, 58), 129)</t>
+  </si>
+  <si>
+    <t>28.6%</t>
+  </si>
+  <si>
+    <t>(57500, 56000, 56000)</t>
+  </si>
+  <si>
+    <t>((36, 38), 91)</t>
+  </si>
+  <si>
+    <t>56.2%</t>
+  </si>
+  <si>
+    <t>(38125, 37250, 39000)</t>
+  </si>
+  <si>
+    <t>((17, 19), 148)</t>
+  </si>
+  <si>
+    <t>18.8%</t>
+  </si>
+  <si>
+    <t>(18500, 18000, 18000)</t>
+  </si>
+  <si>
+    <t>-2.3%</t>
+  </si>
+  <si>
+    <t>((52, 55), 112)</t>
+  </si>
+  <si>
+    <t>43.5%</t>
+  </si>
+  <si>
+    <t>(55000, 54000, 53000)</t>
+  </si>
+  <si>
+    <t>Kolonne1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -691,7 +925,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -714,11 +948,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -726,11 +975,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -741,6 +1087,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71C7AA2-0C66-7F44-AB72-355D0C1DEAA1}" name="Tabell1" displayName="Tabell1" ref="A1:K20" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:K20" xr:uid="{4F0E64EC-81F1-A740-B8AA-131BE73438E2}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{27FED79D-8D4E-484D-8F79-45B040C396A4}" name="Kolonne1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{937D0773-3BD2-F74F-9542-F026978FCD6F}" name="Buyprice" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{AE1F3B22-408F-B74B-AF7D-011D92BDAD8B}" name="Lowest" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{945224AD-6F3B-2644-9BD8-87B270873C5D}" name="Average" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{77B74978-B432-D24C-B7D9-E099313233D4}" name="Highest" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{C5C41423-70F8-F54E-BE7C-A54043EAB077}" name="Trend" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D74C389E-8956-5340-BE3C-59679C7EAD38}" name="Most sales int" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{4D04D171-8E3C-0A44-AD79-E5248BD7B176}" name="Occurency rate" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{903E2F23-CD31-0649-A6BD-CF7D9D1ABD63}" name="Median per 1/3" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{744572BC-9039-2A46-A962-38BE103282F3}" name="Data from last" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{EEE4989D-7E44-974D-A6C2-B3129A267437}" name="# of sales" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1042,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+    <sheetView zoomScale="158" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2309,4 +2675,739 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2">
+        <v>465</v>
+      </c>
+      <c r="C2" s="2">
+        <v>490000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>504647</v>
+      </c>
+      <c r="E2" s="2">
+        <v>520000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>14000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15250</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K3" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>19000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>21459</v>
+      </c>
+      <c r="E4" s="2">
+        <v>24000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K4" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15250</v>
+      </c>
+      <c r="D5" s="2">
+        <v>19074</v>
+      </c>
+      <c r="E5" s="2">
+        <v>22000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2">
+        <v>135</v>
+      </c>
+      <c r="C6" s="2">
+        <v>135000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>144816</v>
+      </c>
+      <c r="E6" s="2">
+        <v>155000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K6" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2">
+        <v>348</v>
+      </c>
+      <c r="C7" s="2">
+        <v>367000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>377723</v>
+      </c>
+      <c r="E7" s="2">
+        <v>388000</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K7" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12250</v>
+      </c>
+      <c r="D8" s="2">
+        <v>14948</v>
+      </c>
+      <c r="E8" s="2">
+        <v>17000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K8" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2">
+        <v>472</v>
+      </c>
+      <c r="C9" s="2">
+        <v>497000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>514237</v>
+      </c>
+      <c r="E9" s="2">
+        <v>530000</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K9" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="2">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2">
+        <v>25500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>29291</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1159</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1220000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1252210</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1280000</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K11" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="2">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2">
+        <v>30500</v>
+      </c>
+      <c r="D12" s="2">
+        <v>35042</v>
+      </c>
+      <c r="E12" s="2">
+        <v>38000</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K12" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="2">
+        <v>170</v>
+      </c>
+      <c r="C13" s="2">
+        <v>170000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>183267</v>
+      </c>
+      <c r="E13" s="2">
+        <v>195000</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K13" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="2">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2">
+        <v>37000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>40662</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="2">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2">
+        <v>29500</v>
+      </c>
+      <c r="D15" s="2">
+        <v>32848</v>
+      </c>
+      <c r="E15" s="2">
+        <v>36000</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K15" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="2">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2">
+        <v>29250</v>
+      </c>
+      <c r="D16" s="2">
+        <v>32170</v>
+      </c>
+      <c r="E16" s="2">
+        <v>34750</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K16" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="2">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>56422</v>
+      </c>
+      <c r="E17" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K17" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="2">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>35000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>37950</v>
+      </c>
+      <c r="E18" s="2">
+        <v>40750</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K18" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15750</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18061</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K19" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="2">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2">
+        <v>48750</v>
+      </c>
+      <c r="D20" s="2">
+        <v>53976</v>
+      </c>
+      <c r="E20" s="2">
+        <v>58000</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K20" s="2">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>